--- a/planing/SQLTables example.xlsx
+++ b/planing/SQLTables example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repos\ENSF_380_FinalProject_Group60\planing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25378174-0EC5-41B4-A1ED-25E6F18C05F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDCB9B1-87A2-4316-A53E-E100C43B3C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>AnimalID</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Feeding x</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -331,12 +334,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -351,6 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -632,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +659,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +684,11 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>6</v>
       </c>
@@ -698,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -724,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -750,7 +766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>6</v>
       </c>
@@ -776,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -802,7 +818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -828,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -854,7 +870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -880,7 +896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -906,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -932,7 +948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -958,7 +974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -984,7 +1000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1010,7 +1026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1028,7 +1044,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2</v>
       </c>
